--- a/HRMS Revisions Log.xlsx
+++ b/HRMS Revisions Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\react-myprojects\hrms-airtable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35ABAA0-9B2E-4AD6-BFED-2DE60B8CCE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF90E1D-4637-45CB-9021-ACD98394F7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49815" yWindow="1305" windowWidth="17085" windowHeight="13080" xr2:uid="{85261432-115C-4B7F-BEA0-F5CDB824F088}"/>
+    <workbookView xWindow="48150" yWindow="990" windowWidth="16935" windowHeight="12855" xr2:uid="{85261432-115C-4B7F-BEA0-F5CDB824F088}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>RE: HRMS REVISIONS LOG</t>
   </si>
@@ -146,6 +146,42 @@
   </si>
   <si>
     <t>Training schedule excluding resigned staff solved</t>
+  </si>
+  <si>
+    <t>Leaves - Export to Excel</t>
+  </si>
+  <si>
+    <t>Expenses = Export to Excel</t>
+  </si>
+  <si>
+    <t>Email conversion from old to new</t>
+  </si>
+  <si>
+    <t>Leaves summary not tally - Solved</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>Payroll upgrade to SPK</t>
+  </si>
+  <si>
+    <t>Payroll - SPK round to 2 decimals</t>
   </si>
 </sst>
 </file>
@@ -181,13 +217,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,7 +531,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -502,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B905582-39C3-46B6-A2A6-6F250B52B715}">
-  <dimension ref="A2:C27"/>
+  <dimension ref="A2:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -734,6 +771,78 @@
         <v>36</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="4">
+        <v>44988</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="6"/>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="4">
+        <v>44989</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4">
+        <v>44991</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4">
+        <v>44991</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="4">
+        <v>45130</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="4">
+        <v>45131</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
